--- a/docs/COMP2013 Marking Scheme 20230v1.xlsx
+++ b/docs/COMP2013 Marking Scheme 20230v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d1f6318edab0ffd/Documents/comp2013_cw/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC6E55A-F6B8-4754-8C6D-7F31B666D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{5EC6E55A-F6B8-4754-8C6D-7F31B666D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6036C089-D6C1-46C9-9171-DDDAEF709E84}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marking scheme" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Project exists</t>
   </si>
@@ -149,7 +149,52 @@
     <t>y</t>
   </si>
   <si>
-    <t>Singleton for controller and view</t>
+    <t>Impmented SnakeModel, SnakeView, SnakeController that work together.</t>
+  </si>
+  <si>
+    <t>Singleton for SnakeController and SnakeView. Overloaded Function in SnakeMusic, playMusic(). Interface Pattern, IModel, IController, IMusic, IView, IMovable. Observer Pattern with SnakeModel and SnakeObject.</t>
+  </si>
+  <si>
+    <t>Converted project to use Maven, added all relevant dependancies.</t>
+  </si>
+  <si>
+    <t>No swing remains in the code.</t>
+  </si>
+  <si>
+    <t>Filled out module-info file with correct information.</t>
+  </si>
+  <si>
+    <t>Can enter a player name after the game ends and program will store the name with the score</t>
+  </si>
+  <si>
+    <t>Snake uses sprites for the head and body. Fruit uses sprites. All sprites are in resources folder, loaded by SnakeImageUtil Class.</t>
+  </si>
+  <si>
+    <t>Added a map select screen with three maps to choose from. MapSelectScene Class</t>
+  </si>
+  <si>
+    <t>Name and Score recorded in a permanent TXT. Scores sorted from high to low and displayed on leaderboard screen. LeaderboardScene Class.</t>
+  </si>
+  <si>
+    <t>Implemented Junit testing across all non GUI components. Carried out user testing across all GUI components. Documented this under docs/testing.  Junit tests found in Maven tests folder.</t>
+  </si>
+  <si>
+    <t>Renamed all classes and packages. Filed all classes into relevant packages, eg MVC View Classes all in View package. Controller Classes are in Controller. View In View, Scenes are under View/SnakeScenes</t>
+  </si>
+  <si>
+    <t>Renamed all classes, deleted all unsued classes, methods and resources. Moved all resources to resources folder. Classes specifically for handling resources, SnakeMusicUtil, SnakeImageUtil</t>
+  </si>
+  <si>
+    <t>Split up classes into individual responsibility, eg SnakeObject and SnakeBody, View and its Scene Package with all of the scenes split up. SnakeFood handles food, SnakeWall handles wall feature. MVC classses are all independent. SnakeMusic handles music, uses SnakeMusic util, which handles getting the resources. SnakeImageUtil handles image resources. The SnakeScene package classes all handle an individual scene.</t>
+  </si>
+  <si>
+    <t>Created new Scene in MainMenuScene Class. Added settings page to that menu, where the user can customise volume, snake length, toggle on and off the wall feature, and turn on a high contrast accessability mode. Also added a Map Select screen where the user can select which map to use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main menu has 4 buttons, Start, Settings, Leaderboard and Exit. They all take you to their respective pages / scenes. MainMenuScene Class. The map select screen has two buttons, back to menu and start, MapSelectScene Class. The settings menu has buttons where you can choose different settings (volume and snake size slider, toggle checkboxes for high contrast mode and wall mode) SettingScene Class. The leaderboard has a back to menu button and a scrollbox to view the leaderboard, LeaderboardScene Class. The game over screen has restart, main menu and add to leaderboard buttons. SnakeView gameOverScreen() method. There is a pause menu when you press esc, you can then go back to the main menu, restart, change the volume or unpause. pauseGame() and unpauseGame() in SnakeView. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus fruits, golden fruit adds 500, rotten fruit takes 100 away, dissapear after 5 seconds (SnakeFood Class). Walls to be avoided, change position and orientation every 5 seconds (SnakeWall Class). Can be disabled in settings (SettingsScene Class). Game over screen, has a place to enter a name to go on the leaderboard, previously mentioned buttons, a countdown from 10 that restarts the game. (gameOverScreen() method in SnakeView). A sleek pause menu when you press ESC in game, has volume slider and restart and main menu buttons. (pauseGame() unpauseGame() methods in SnakeView) </t>
   </si>
 </sst>
 </file>
@@ -335,10 +380,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" zoomScaleNormal="249" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="82" zoomScaleNormal="249" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +747,9 @@
       <c r="C12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
@@ -715,7 +758,9 @@
       <c r="C13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -724,7 +769,9 @@
       <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -733,7 +780,9 @@
       <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -743,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -753,7 +802,9 @@
       <c r="C17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -762,7 +813,9 @@
       <c r="C18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -771,7 +824,9 @@
       <c r="C19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
@@ -780,7 +835,9 @@
       <c r="C20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -798,7 +855,9 @@
       <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -807,7 +866,9 @@
       <c r="C23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -816,7 +877,9 @@
       <c r="C24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -825,7 +888,9 @@
       <c r="C25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -834,7 +899,9 @@
       <c r="C26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -843,16 +910,20 @@
       <c r="C27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="2:4" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="20" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
